--- a/受控文档/05-需求分析/需求优先级/游客需求优先级打分.xlsx
+++ b/受控文档/05-需求分析/需求优先级/游客需求优先级打分.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="960" windowWidth="18396" windowHeight="13176" activeTab="2"/>
+    <workbookView xWindow="8340" yWindow="960" windowWidth="18396" windowHeight="13176" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="文档标识" sheetId="2" r:id="rId1"/>
@@ -584,7 +584,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,50 +609,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -663,7 +630,37 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,23 +669,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -696,8 +723,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -705,74 +732,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,295 +1201,301 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="3" spans="2:9">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24" t="s">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25">
+      <c r="E28" s="13"/>
+      <c r="F28" s="14">
         <v>43471</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:I19"/>
+    <mergeCell ref="B20:I22"/>
+    <mergeCell ref="B23:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:I28"/>
@@ -1496,12 +1505,6 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:I27"/>
-    <mergeCell ref="B3:I19"/>
-    <mergeCell ref="B20:I22"/>
-    <mergeCell ref="B23:I24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1520,720 +1523,678 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="2" spans="2:18" ht="22.8">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="27"/>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="28"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="27"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="28">
         <v>1</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="36"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="45"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="39"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="48"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="39"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="39"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="48"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="41"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="51"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="42" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44" t="s">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="43"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="42" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44" t="s">
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="43"/>
-      <c r="N10" s="44" t="s">
+      <c r="M10" s="41"/>
+      <c r="N10" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="43"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="41"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="42">
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="40">
         <v>1</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44">
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42">
         <v>1</v>
       </c>
-      <c r="M11" s="43"/>
-      <c r="N11" s="44" t="s">
+      <c r="M11" s="41"/>
+      <c r="N11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="43"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="42">
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="40">
         <v>2</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44" t="s">
+      <c r="F12" s="41"/>
+      <c r="G12" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44">
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42">
         <v>2</v>
       </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="44" t="s">
+      <c r="M12" s="41"/>
+      <c r="N12" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="43"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="41"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="42">
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="40">
         <v>3</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="44">
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="42">
         <v>3</v>
       </c>
-      <c r="M13" s="43"/>
-      <c r="N13" s="44" t="s">
+      <c r="M13" s="41"/>
+      <c r="N13" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="43"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="42">
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="40">
         <v>4</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44">
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42">
         <v>4</v>
       </c>
-      <c r="M14" s="43"/>
-      <c r="N14" s="44" t="s">
+      <c r="M14" s="41"/>
+      <c r="N14" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="43"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="41"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="42">
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="40">
         <v>5</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44">
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42">
         <v>5</v>
       </c>
-      <c r="M15" s="43"/>
-      <c r="N15" s="44" t="s">
+      <c r="M15" s="41"/>
+      <c r="N15" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="43"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="42">
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="40">
         <v>6</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44" t="s">
+      <c r="F16" s="41"/>
+      <c r="G16" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44">
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42">
         <v>6</v>
       </c>
-      <c r="M16" s="43"/>
-      <c r="N16" s="44" t="s">
+      <c r="M16" s="41"/>
+      <c r="N16" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="43"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="41"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="42">
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="40">
         <v>7</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="44">
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42">
         <v>7</v>
       </c>
-      <c r="M17" s="43"/>
-      <c r="N17" s="44" t="s">
+      <c r="M17" s="41"/>
+      <c r="N17" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="43"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="42">
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="40">
         <v>8</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44" t="s">
+      <c r="F18" s="41"/>
+      <c r="G18" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="44">
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42">
         <v>8</v>
       </c>
-      <c r="M18" s="43"/>
-      <c r="N18" s="44" t="s">
+      <c r="M18" s="41"/>
+      <c r="N18" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="43"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="41"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="42">
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="40">
         <v>9</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44" t="s">
+      <c r="F19" s="41"/>
+      <c r="G19" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="44">
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="42">
         <v>9</v>
       </c>
-      <c r="M19" s="43"/>
-      <c r="N19" s="44" t="s">
+      <c r="M19" s="41"/>
+      <c r="N19" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="43"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34">
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="28">
         <v>2</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="36"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="45"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="39"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="48"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="41"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="51"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34">
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="28">
         <v>3</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="51"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="32"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="35"/>
     </row>
     <row r="25" spans="2:18" ht="20.399999999999999">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="55">
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="10">
         <v>4</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="28"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="27"/>
     </row>
     <row r="26" spans="2:18" ht="20.399999999999999">
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="55">
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="10">
         <v>5</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="28"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="27"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34">
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="28">
         <v>6</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="51"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="32"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="59"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="39"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="35"/>
     </row>
     <row r="30" spans="2:18" ht="20.399999999999999">
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="55">
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="10">
         <v>7</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="28"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:R30"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:R24"/>
-    <mergeCell ref="E25:R25"/>
-    <mergeCell ref="E26:R26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:R29"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:R22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:R11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="L12:M12"/>
@@ -2248,6 +2209,48 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:R22"/>
+    <mergeCell ref="E30:R30"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:R24"/>
+    <mergeCell ref="E25:R25"/>
+    <mergeCell ref="E26:R26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:R29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2258,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -2273,13 +2276,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.950000000000003" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
@@ -2303,12 +2306,12 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:7">
@@ -2321,8 +2324,12 @@
       <c r="C4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5">
@@ -2334,8 +2341,12 @@
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="6">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5">
@@ -2347,8 +2358,12 @@
       <c r="C6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5">
@@ -2360,8 +2375,12 @@
       <c r="C7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5">
@@ -2373,8 +2392,12 @@
       <c r="C8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5">
@@ -2386,8 +2409,12 @@
       <c r="C9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5">
@@ -2399,8 +2426,12 @@
       <c r="C10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="6">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5">
@@ -2412,8 +2443,12 @@
       <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5">
@@ -2425,8 +2460,12 @@
       <c r="C12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5">
@@ -2438,8 +2477,12 @@
       <c r="C13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="6">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5">
@@ -2451,21 +2494,29 @@
       <c r="C14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="6">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="8">
+        <v>6</v>
+      </c>
+      <c r="E15" s="8">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2482,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -2497,13 +2548,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.950000000000003" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
@@ -2527,12 +2578,12 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:7">
@@ -2545,8 +2596,12 @@
       <c r="C4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5">
@@ -2558,8 +2613,12 @@
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="6">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5">
@@ -2571,8 +2630,12 @@
       <c r="C6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5">
@@ -2584,8 +2647,12 @@
       <c r="C7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5">
@@ -2597,8 +2664,12 @@
       <c r="C8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5">
@@ -2610,21 +2681,29 @@
       <c r="C9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="8">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/受控文档/05-需求分析/需求优先级/游客需求优先级打分.xlsx
+++ b/受控文档/05-需求分析/需求优先级/游客需求优先级打分.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>访问其他界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游客访问其他界面均会弹出提示框提示进行注册登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,6 +313,14 @@
   </si>
   <si>
     <t>游客可以通过首页提供的二维码下载APP</t>
+  </si>
+  <si>
+    <t>访问限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -621,6 +625,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -630,37 +664,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -669,10 +682,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,9 +757,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -704,63 +765,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1201,301 +1205,295 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="3" spans="2:9">
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="23"/>
+      <c r="F25" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="23"/>
+      <c r="F27" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14">
+      <c r="E28" s="23"/>
+      <c r="F28" s="24">
         <v>43471</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:I19"/>
-    <mergeCell ref="B20:I22"/>
-    <mergeCell ref="B23:I24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:I28"/>
@@ -1505,6 +1503,12 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:I27"/>
+    <mergeCell ref="B3:I19"/>
+    <mergeCell ref="B20:I22"/>
+    <mergeCell ref="B23:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1523,678 +1527,718 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="2" spans="2:18" ht="22.8">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="27"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="30"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="28">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="37">
         <v>1</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="45"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="48"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="43"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="48"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="43"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="48"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="43"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="51"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="45"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="40" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="41"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="40" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42" t="s">
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="42" t="s">
+      <c r="M10" s="26"/>
+      <c r="N10" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="41"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="26"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="40">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="25">
         <v>1</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42">
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27">
         <v>1</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42" t="s">
+      <c r="M11" s="26"/>
+      <c r="N11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="41"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="40">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="25">
         <v>2</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42" t="s">
+      <c r="F12" s="26"/>
+      <c r="G12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="42">
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27">
         <v>2</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="42" t="s">
+      <c r="M12" s="26"/>
+      <c r="N12" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="41"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="26"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="40">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="25">
         <v>3</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42" t="s">
+      <c r="F13" s="26"/>
+      <c r="G13" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="42">
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27">
         <v>3</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="42" t="s">
+      <c r="M13" s="26"/>
+      <c r="N13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="41"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="26"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="40">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="25">
         <v>4</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="42">
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27">
         <v>4</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="42" t="s">
+      <c r="M14" s="26"/>
+      <c r="N14" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="41"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="26"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="40">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="25">
         <v>5</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42" t="s">
+      <c r="F15" s="26"/>
+      <c r="G15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="42">
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27">
         <v>5</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42" t="s">
+      <c r="M15" s="26"/>
+      <c r="N15" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="41"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="26"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="40">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="25">
         <v>6</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="42">
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27">
         <v>6</v>
       </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42" t="s">
+      <c r="M16" s="26"/>
+      <c r="N16" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="41"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="26"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="40">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="25">
         <v>7</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42" t="s">
+      <c r="F17" s="26"/>
+      <c r="G17" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42">
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27">
         <v>7</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42" t="s">
+      <c r="M17" s="26"/>
+      <c r="N17" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="41"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="26"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="40">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="25">
         <v>8</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42" t="s">
+      <c r="F18" s="26"/>
+      <c r="G18" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="42">
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27">
         <v>8</v>
       </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42" t="s">
+      <c r="M18" s="26"/>
+      <c r="N18" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="41"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="26"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="40">
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="25">
         <v>9</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42" t="s">
+      <c r="F19" s="26"/>
+      <c r="G19" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="42">
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27">
         <v>9</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42" t="s">
+      <c r="M19" s="26"/>
+      <c r="N19" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="41"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="26"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="28">
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="37">
         <v>2</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="45"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="41"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="48"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="43"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="51"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="45"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="28">
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="37">
         <v>3</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="32"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="52"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="35"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="55"/>
     </row>
     <row r="25" spans="2:18" ht="20.399999999999999">
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="10">
         <v>4</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="27"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="30"/>
     </row>
     <row r="26" spans="2:18" ht="20.399999999999999">
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="10">
         <v>5</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="27"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="30"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="28">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="37">
         <v>6</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="32"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="52"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="39"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="58"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="35"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="55"/>
     </row>
     <row r="30" spans="2:18" ht="20.399999999999999">
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="10">
         <v>7</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="27"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:R22"/>
+    <mergeCell ref="E30:R30"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:R24"/>
+    <mergeCell ref="E25:R25"/>
+    <mergeCell ref="E26:R26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:R29"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:R13"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="L12:M12"/>
@@ -2211,46 +2255,6 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:R10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:R22"/>
-    <mergeCell ref="E30:R30"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:R24"/>
-    <mergeCell ref="E25:R25"/>
-    <mergeCell ref="E26:R26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:R29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2262,7 +2266,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -2322,7 +2326,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="6">
         <v>9</v>
@@ -2356,7 +2360,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="6">
         <v>4</v>
@@ -2373,7 +2377,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
@@ -2390,7 +2394,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -2407,7 +2411,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="6">
         <v>6</v>
@@ -2424,7 +2428,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="6">
         <v>7</v>
@@ -2441,7 +2445,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="6">
         <v>4</v>
@@ -2458,7 +2462,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="6">
         <v>3</v>
@@ -2475,7 +2479,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="6">
         <v>7</v>
@@ -2492,7 +2496,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="6">
         <v>8</v>
@@ -2506,10 +2510,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="D15" s="8">
         <v>6</v>
@@ -2534,7 +2538,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -2594,7 +2598,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="6">
         <v>8</v>
@@ -2628,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="6">
         <v>6</v>
@@ -2645,7 +2649,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
@@ -2662,7 +2666,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
@@ -2679,7 +2683,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6">
         <v>7</v>
@@ -2693,10 +2697,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="8">
         <v>5</v>
